--- a/Datasets/Mathematics_questions.xlsx
+++ b/Datasets/Mathematics_questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\minor-project\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{392106B5-8F5E-49A3-830C-1D6B4230CE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D953B96-30C4-44F4-A916-AB9704C1DC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mathematics_questions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="205">
   <si>
     <t>Question</t>
   </si>
@@ -82,18 +82,6 @@
     <t>In a right-angled triangle, which of the following is always true?</t>
   </si>
   <si>
-    <t>The sum of the squares of the two shorter sides equals the square of the hypotenuse.</t>
-  </si>
-  <si>
-    <t>The sum of the squares of all three sides equals zero.</t>
-  </si>
-  <si>
-    <t>The sum of the squares of the two shorter sides equals the square of the longer side.</t>
-  </si>
-  <si>
-    <t>The sum of the squares of all three sides equals one.</t>
-  </si>
-  <si>
     <t>What is the formula for calculating the surface area of a sphere?</t>
   </si>
   <si>
@@ -358,9 +346,6 @@
     <t>In a right-angled triangle, what is the ratio of the opposite side to the adjacent side known as?</t>
   </si>
   <si>
-    <t>If x4 + 1/x4= 322, then x â€“ 1/x is equal to:</t>
-  </si>
-  <si>
     <t>L.CM. of (1-2m)^33 and (1 -2m)^11 is =</t>
   </si>
   <si>
@@ -403,18 +388,6 @@
     <t>If log 2, log (2^x - 1), log (2^x+ 3) are in A.P., then x=</t>
   </si>
   <si>
-    <t>log5 3</t>
-  </si>
-  <si>
-    <t>log3 5</t>
-  </si>
-  <si>
-    <t>log3 2</t>
-  </si>
-  <si>
-    <t>log2 5</t>
-  </si>
-  <si>
     <t>In A.P. there are three numbers such that their sum is 18 and sum of their squares is 158. Among them greatest number is :</t>
   </si>
   <si>
@@ -436,9 +409,6 @@
     <t>The value of 1-tan^2 15/1+tan^2 15 is:</t>
   </si>
   <si>
-    <t>In ï°ABC, value of cosec A (sin B cos C + cos B sin C) is:</t>
-  </si>
-  <si>
     <t>c/a</t>
   </si>
   <si>
@@ -454,9 +424,6 @@
     <t>2^9</t>
   </si>
   <si>
-    <t>sin 25Â° sec 65Â° - cos 65Â° cosec 25Â° =</t>
-  </si>
-  <si>
     <t>The centroid of the triangle formed by the points (1,-3), (-3,4)and (5, 5) is</t>
   </si>
   <si>
@@ -478,33 +445,12 @@
     <t>None of these</t>
   </si>
   <si>
-    <t>In the given figure, if angle ODC = angle OAB, then OA is:</t>
-  </si>
-  <si>
-    <t>4.6 cm</t>
-  </si>
-  <si>
-    <t>4.8 cm</t>
-  </si>
-  <si>
-    <t>2.58 cm</t>
-  </si>
-  <si>
-    <t>1.6 cm</t>
-  </si>
-  <si>
-    <t>If DE is tangent at C and angle BCD =120Â°, then angle CAB is equal to:</t>
-  </si>
-  <si>
     <t>AB is the diameter of the circle and O is centre, then angle ACO is equal to:</t>
   </si>
   <si>
     <t>If PC=PD=x, PB=8, PA =1, then the value of x is :</t>
   </si>
   <si>
-    <t>if two medians of a triangle are equal, then the triangle will be</t>
-  </si>
-  <si>
     <t>Right angled but not isosceles</t>
   </si>
   <si>
@@ -517,9 +463,6 @@
     <t>The number of revolutions that a wheel of diameter 7/11 m will make in going 4 km is</t>
   </si>
   <si>
-    <t>The area of a rectangular field whose sides are in the ratio of 4 : 3 is 12 hectare. Itâ€™s diagonal will be:</t>
-  </si>
-  <si>
     <t>400 m</t>
   </si>
   <si>
@@ -607,9 +550,6 @@
     <t>1+2cos^2 Θ</t>
   </si>
   <si>
-    <t>In a circle, O is the centre and PQRS is a cyclic quadrilateral. If angle PQR = 120°, then angle POR = ...:</t>
-  </si>
-  <si>
     <t>120°</t>
   </si>
   <si>
@@ -644,12 +584,63 @@
   </si>
   <si>
     <t>1/2√2</t>
+  </si>
+  <si>
+    <t>The area of a rectangular field whose sides are in the ratio of 4 : 3 is 12 hectare. It's diagonal will be:</t>
+  </si>
+  <si>
+    <t>1 Ratio 2</t>
+  </si>
+  <si>
+    <t>2 Ratio 3</t>
+  </si>
+  <si>
+    <t>In triangle ABC, value of cosec A (sin B cos C + cos B sin C) is:</t>
+  </si>
+  <si>
+    <t>sin 25A° sec 65A° - cos 65A° cosec 25A° =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(log 3) to the base 5 </t>
+  </si>
+  <si>
+    <t>(log 5) to the base 3</t>
+  </si>
+  <si>
+    <t>(log 2) to the base 3</t>
+  </si>
+  <si>
+    <t>(log5) to the base 2</t>
+  </si>
+  <si>
+    <t>If x^4 + 1/x^4= 322, then x + 1/x is equal to:</t>
+  </si>
+  <si>
+    <t>a^2 + b^2 = c^2</t>
+  </si>
+  <si>
+    <t>a^2 + b^2 + c^2 = 0</t>
+  </si>
+  <si>
+    <t>a^2 + b^2 &gt; c^2</t>
+  </si>
+  <si>
+    <t>a^2 + b^2 +c^2 = 1</t>
+  </si>
+  <si>
+    <t>If two medians of a triangle are equal, then the triangle will be</t>
+  </si>
+  <si>
+    <t>If DE is tangent at C and angle BCD =120A°, then angle CAB is equal to:</t>
+  </si>
+  <si>
+    <t>In a circle, O is the centre and PQRS is a cyclic quadrilateral. If angle PQR = 120°, then angle POR is equals to ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1495,20 +1486,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.21875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="25.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="75.28515625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="25.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1548,27 +1539,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1588,489 +1579,489 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B29" s="2">
         <v>4</v>
@@ -2088,29 +2079,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B31" s="4">
         <v>0.7142857142857143</v>
@@ -2125,32 +2116,32 @@
         <v>0.8</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B33" s="2">
         <v>27</v>
@@ -2165,52 +2156,52 @@
         <v>-72</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B36" s="2">
         <v>10</v>
@@ -2225,72 +2216,72 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E38" s="2">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
@@ -2299,38 +2290,38 @@
         <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -2348,224 +2339,204 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="3">
-        <v>4.3055555555555562E-2</v>
-      </c>
-      <c r="C44" s="3">
-        <v>4.2361111111111106E-2</v>
-      </c>
-      <c r="D44" s="3">
-        <v>8.5416666666666655E-2</v>
+        <v>139</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="F46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1700</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C51" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1700</v>
-      </c>
-      <c r="E51" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="B52" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F53" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
